--- a/data/base/5.3gene_list.xlsx
+++ b/data/base/5.3gene_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基因列表" sheetId="1" r:id="rId1"/>
@@ -584,12 +584,11 @@
     <t>MAPK信号通路变异情况</t>
   </si>
   <si>
-    <t xml:space="preserve">通路简介：MAP激酶信号转导途径促进细胞的生长增殖和存活，上游生长因子受体酪氨酸激酶和下游通路基因组分突变均可以激活MAP激酶信号。具体过程：生长因子（EGF，HGF）结合受体酪氨酸激酶后激活受体活性，SRC通过其SH2结构域结合到受体上。受体酪氨酸激酶激活触发下游磷酸化激活（H- / K- / N-）RAS, （A- / B- / C-）RAF, MEK1 / 2（MAP2K1）, ERK1 / 2（MAPK1），最终活化ERK (MAPK1)从而促进细胞生长和存活。
+    <t>通路简介：MAP激酶信号转导途径促进细胞的生长增殖和存活，上游生长因子受体酪氨酸激酶和下游通路基因组分突变均可以激活MAP激酶信号。具体过程：生长因子（EGF，HGF）结合受体酪氨酸激酶后激活受体活性，SRC通过其SH2结构域结合到受体上。受体酪氨酸激酶激活触发下游磷酸化激活（H- / K- / N-）RAS, （A- / B- / C-）RAF, MEK1 / 2（MAP2K1）, ERK1 / 2（MAPK1），最终活化ERK (MAPK1)从而促进细胞生长和存活。
 上游通路：激酶融合，受体酪氨酸激酶/生长因子信号
 下游通路：细胞周期调控
 通路异常激活的疾病：结直肠癌，肺癌，黑色素瘤
-靶向通路治疗手段：BRAF抑制剂，ERK抑制剂，MEK抑制剂，SRC抑制剂
- </t>
+靶向通路治疗手段：BRAF抑制剂，ERK抑制剂，MEK抑制剂，SRC抑制剂</t>
   </si>
   <si>
     <t>基因列表</t>
@@ -624,10 +623,11 @@
 靶向通路治疗手段：BCL2抑制剂</t>
   </si>
   <si>
-    <t>通路简介：细胞周期调控参与细胞的生长、复制和分裂，包括四个阶段：G1期（DNA合成前期）、S期（DNA合成期）、G2期（DNA合成后期）和M期（有丝分裂期）。细胞周期调控取决于特定的细胞周期检查点，这些检查点可以防止异常的细胞周期激活和继续，确保子代细胞的完整性。例如：G2/M期检查点阻止含有异常DNA的细胞进入有丝分裂期。细胞检查点包括G1/S期和G2/M期检查点等，这些周期检查点由CDK（CDK -1, -2, -4, -6, -8, -12）和cyclin（cyclin -A, -B, -D, -E）复合物协调控制，如：CDK4/6+cyclin D, RB1/E2F, CDK2+cyclin E, CDK2+cyclin A, CDK1+cyclin A, CDK1+cyclin B等。细胞检查点在应对DNA损伤中发挥着重要作用。DNA损伤激活这些检查点，通过修复损伤的DNA或在DNA损伤不能修复的情况下细胞进入程序性死亡以确保基因组完整性。检查点和DNA损伤修复反应在许多肿瘤中发生了改变。
+    <t xml:space="preserve">通路简介：细胞周期调控参与细胞的生长、复制和分裂，包括四个阶段：G1期（DNA合成前期）、S期（DNA合成期）、G2期（DNA合成后期）和M期（有丝分裂期）。细胞周期调控取决于特定的细胞周期检查点，这些检查点可以防止异常的细胞周期激活和继续，确保子代细胞的完整性。例如：G2/M期检查点阻止含有异常DNA的细胞进入有丝分裂期。细胞检查点包括G1/S期和G2/M期检查点等，这些周期检查点由CDK（CDK -1, -2, -4, -6, -8, -12）和cyclin（cyclin -A, -B, -D, -E）复合物协调控制，如：CDK4/6+cyclin D, RB1/E2F, CDK2+cyclin E, CDK2+cyclin A, CDK1+cyclin A, CDK1+cyclin B等。细胞检查点在应对DNA损伤中发挥着重要作用。DNA损伤激活这些检查点，通过修复损伤的DNA或在DNA损伤不能修复的情况下细胞进入程序性死亡以确保基因组完整性。检查点和DNA损伤修复反应在许多肿瘤中发生了改变。
 上游通路：JAK/STAT信号通路，激酶融合，MAP激酶信号通路，PI3K/AKT1/MTOR信号通路，受体酪氨酸激酶/生长因子信号
 通路异常激活的疾病：急性粒细胞白血病，膀胱癌，乳腺癌，骨髓增生异常综合征
-靶向通路治疗手段：CDK抑制剂，CDK1抑制剂，CDK2抑制剂，CDK4/6抑制剂</t>
+靶向通路治疗手段：CDK抑制剂，CDK1抑制剂，CDK2抑制剂，CDK4/6抑制剂
+ </t>
   </si>
   <si>
     <t>代谢通路</t>
@@ -685,10 +685,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -721,9 +721,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,6 +797,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -744,44 +819,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,64 +851,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,7 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +885,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +939,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +981,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,115 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1058,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1080,16 +1089,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,21 +1139,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1138,23 +1153,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,145 +1164,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2347,8 +2347,8 @@
   <sheetPr/>
   <dimension ref="A1:AO11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2358,7 +2358,7 @@
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="185.25" spans="1:16">
+    <row r="1" ht="142.5" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>185</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" ht="213.75" spans="1:32">
+    <row r="5" ht="242.25" spans="1:32">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>

--- a/data/base/5.3gene_list.xlsx
+++ b/data/base/5.3gene_list.xlsx
@@ -623,11 +623,10 @@
 靶向通路治疗手段：BCL2抑制剂</t>
   </si>
   <si>
-    <t xml:space="preserve">通路简介：细胞周期调控参与细胞的生长、复制和分裂，包括四个阶段：G1期（DNA合成前期）、S期（DNA合成期）、G2期（DNA合成后期）和M期（有丝分裂期）。细胞周期调控取决于特定的细胞周期检查点，这些检查点可以防止异常的细胞周期激活和继续，确保子代细胞的完整性。例如：G2/M期检查点阻止含有异常DNA的细胞进入有丝分裂期。细胞检查点包括G1/S期和G2/M期检查点等，这些周期检查点由CDK（CDK -1, -2, -4, -6, -8, -12）和cyclin（cyclin -A, -B, -D, -E）复合物协调控制，如：CDK4/6+cyclin D, RB1/E2F, CDK2+cyclin E, CDK2+cyclin A, CDK1+cyclin A, CDK1+cyclin B等。细胞检查点在应对DNA损伤中发挥着重要作用。DNA损伤激活这些检查点，通过修复损伤的DNA或在DNA损伤不能修复的情况下细胞进入程序性死亡以确保基因组完整性。检查点和DNA损伤修复反应在许多肿瘤中发生了改变。
+    <t>通路简介：细胞周期调控参与细胞的生长、复制和分裂，包括四个阶段：G1期（DNA合成前期）、S期（DNA合成期）、G2期（DNA合成后期）和M期（有丝分裂期）。细胞周期调控取决于特定的细胞周期检查点，这些检查点可以防止异常的细胞周期激活和继续，确保子代细胞的完整性。例如：G2/M期检查点阻止含有异常DNA的细胞进入有丝分裂期。细胞检查点包括G1/S期和G2/M期检查点等，这些周期检查点由CDK（CDK -1, -2, -4, -6, -8, -12）和cyclin（cyclin -A, -B, -D, -E）复合物协调控制，如：CDK4/6+cyclin D, RB1/E2F, CDK2+cyclin E, CDK2+cyclin A, CDK1+cyclin A, CDK1+cyclin B等。细胞检查点在应对DNA损伤中发挥着重要作用。DNA损伤激活这些检查点，通过修复损伤的DNA或在DNA损伤不能修复的情况下细胞进入程序性死亡以确保基因组完整性。检查点和DNA损伤修复反应在许多肿瘤中发生了改变。
 上游通路：JAK/STAT信号通路，激酶融合，MAP激酶信号通路，PI3K/AKT1/MTOR信号通路，受体酪氨酸激酶/生长因子信号
 通路异常激活的疾病：急性粒细胞白血病，膀胱癌，乳腺癌，骨髓增生异常综合征
-靶向通路治疗手段：CDK抑制剂，CDK1抑制剂，CDK2抑制剂，CDK4/6抑制剂
- </t>
+靶向通路治疗手段：CDK抑制剂，CDK1抑制剂，CDK2抑制剂，CDK4/6抑制剂</t>
   </si>
   <si>
     <t>代谢通路</t>
@@ -685,10 +684,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -715,14 +714,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,9 +742,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,25 +780,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,14 +804,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,7 +828,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,14 +851,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,7 +866,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,13 +908,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,157 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,6 +1069,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1080,45 +1088,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1139,13 +1108,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,151 +1131,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2627,7 +2626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" ht="242.25" spans="1:32">
+    <row r="5" ht="213.75" spans="1:32">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
